--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2233.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2233.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.292167135506869</v>
+        <v>1.027754068374634</v>
       </c>
       <c r="B1">
-        <v>2.893873818022975</v>
+        <v>2.196247816085815</v>
       </c>
       <c r="C1">
-        <v>8.620417713853252</v>
+        <v>7.043343067169189</v>
       </c>
       <c r="D1">
-        <v>1.997373064258802</v>
+        <v>2.348808288574219</v>
       </c>
       <c r="E1">
-        <v>1.094875476484788</v>
+        <v>1.325287342071533</v>
       </c>
     </row>
   </sheetData>
